--- a/metabolicReactions.xlsx
+++ b/metabolicReactions.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="219">
   <si>
     <t xml:space="preserve">ID (BIGG)</t>
   </si>
@@ -36,6 +36,9 @@
     <t xml:space="preserve">Reaction</t>
   </si>
   <si>
+    <t xml:space="preserve">exchange</t>
+  </si>
+  <si>
     <t xml:space="preserve">SEED link</t>
   </si>
   <si>
@@ -54,6 +57,9 @@
     <t xml:space="preserve">D-Glucose[1] + H+[1] &lt;=&gt; D-Glucose + H+</t>
   </si>
   <si>
+    <t xml:space="preserve">D-Glucose[1]</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://modelseed.org/biochem/reactions/rxn05573</t>
   </si>
   <si>
@@ -283,6 +289,9 @@
   </si>
   <si>
     <t xml:space="preserve">Pyruvate[1] + H+[1] &lt;=&gt; Pyruvate + H+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pyruvate[1]</t>
   </si>
   <si>
     <t xml:space="preserve">https://modelseed.org/biochem/reactions/rxn05469</t>
@@ -679,7 +688,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -732,6 +741,11 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -778,7 +792,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -801,6 +815,10 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -881,21 +899,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="80.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="36.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="76.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="43.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="207.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="43.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="207.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -917,427 +935,452 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>21</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>26</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>31</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>36</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>41</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>46</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>51</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>56</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>61</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>65</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>67</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>72</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>77</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>81</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="E16" s="2"/>
       <c r="F16" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>83</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>88</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>94</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>97</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="E19" s="2"/>
       <c r="F19" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>100</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>105</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>110</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="F22" s="2"/>
+        <v>115</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G22" s="2"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F23" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="B24" s="0" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>124</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1" display="https://modelseed.org/biochem/reactions/rxn00216"/>
+    <hyperlink ref="F3" r:id="rId1" display="https://modelseed.org/biochem/reactions/rxn00216"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1356,8 +1399,8 @@
   </sheetPr>
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1385,402 +1428,402 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -1805,7 +1848,7 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1832,445 +1875,445 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4"/>
       <c r="B26" s="4" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/metabolicReactions.xlsx
+++ b/metabolicReactions.xlsx
@@ -1,18 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u0139894\Documents\GitHub\metabolic_toy_model\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4F6F608-52EC-48DB-896F-BBB12A5B41F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="bt" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="ri" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="bh" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="bt" sheetId="1" r:id="rId1"/>
+    <sheet name="ri" sheetId="2" r:id="rId2"/>
+    <sheet name="bh" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -24,716 +29,713 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="234">
   <si>
-    <t xml:space="preserve">ID (BIGG)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID (SEED)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exchange</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEED link</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Notes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GLCt2r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rxn05573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D-glucose transport in via proton symport</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D-Glucose[1] + H+[1] &lt;=&gt; D-Glucose + H+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D-Glucose[1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://modelseed.org/biochem/reactions/rxn05573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HEX1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rxn00216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATP:D-glucose 6-phosphotransferase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATP + D-Glucose =&gt; ADP + H+ + D-glucose-6-phosphate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://modelseed.org/biochem/reactions/rxn00216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PGI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rxn00558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D-glucose-6-phosphate aldose-ketose-isomerase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D-glucose-6-phosphate &lt;=&gt; D-fructose-6-phosphate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://modelseed.org/biochem/reactions/rxn00558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PFK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rxn00545 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATP:D-fructose-6-phosphate 1-phosphotransferase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATP + D-fructose-6-phosphate =&gt; ADP + H+ + D-fructose-1,6-bisphosphate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://modelseed.org/biochem/reactions/rxn00545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FBA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rxn00786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D-fructose-1,6-bisphosphate D-glyceraldehyde-3-phosphate-lyase (glycerone-phosphate-forming)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D-fructose-1,6-bisphosphate &lt;=&gt; Glycerone-phosphate + Glyceraldehyde3-phosphate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://modelseed.org/biochem/reactions/rxn00786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TPI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rxn00747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D-glyceraldehyde-3-phosphate aldose-ketose-isomerase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Glyceraldehyde3-phosphate &lt;=&gt; Glycerone-phosphate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://modelseed.org/biochem/reactions/rxn00747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GAPD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rxn00781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D-glyceraldehyde-3-phosphate:NAD+ oxidoreductase (phosphorylating)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NAD + Phosphate + Glyceraldehyde3-phosphate &lt;=&gt; NADH + H+ + 1,3-Bisphospho-D-glycerate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://modelseed.org/biochem/reactions/rxn00781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PGK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rxn01100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATP:3-phospho-D-glycerate 1-phosphotransferase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATP + 3-Phosphoglycerate &lt;=&gt; ADP + 1,3-Bisphospho-D-glycerate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://modelseed.org/biochem/reactions/rxn01100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PGM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rxn01106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2-Phospho-D-glycerate 2,3-phosphomutase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2-Phospho-D-glycerate &lt;=&gt; 3-Phosphoglycerate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://modelseed.org/biochem/reactions/rxn01106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rxn00459 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2-phospho-D-glycerate hydro-lyase (phosphoenolpyruvate-forming)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2-Phospho-D-glycerate &lt;=&gt; H2O + Phosphoenolpyruvate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://modelseed.org/biochem/reactions/rxn00459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PYK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rxn00148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATP:pyruvate 2-O-phosphotransferase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATP + Pyruvate &lt;=&gt; ADP + Phosphoenolpyruvate + H+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://modelseed.org/biochem/reactions/rxn00148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PPCKr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rxn00247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATP:oxaloacetate carboxy-lyase (transphosphorylating;phosphoenolpyruvate-forming)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATP + Oxaloacetate &lt;=&gt; ADP + CO2 + Phosphoenolpyruvate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://modelseed.org/biochem/reactions/rxn00247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reference of it being reversed in Bacteroides fragilis: https://www.frontiersin.org/articles/10.3389/fmicb.2015.00825/full (PEP carboxykinase); other nice ref: https://www.sciencedirect.com/science/article/pii/S1931312811002952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MDH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rxn00248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(S)-malate:NAD+ oxidoreductase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NAD + L-Malate &lt;=&gt; NADH + Oxaloacetate + H+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://modelseed.org/biochem/reactions/rxn00248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FUM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rxn00799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(S)-malate hydro-lyase (fumarate-forming)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L-Malate &lt;=&gt; H2O + Fumarate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://modelseed.org/biochem/reactions/rxn00799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRDx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rxn00284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">succinate:NAD+ oxidoreductase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NAD + Succinate &lt;= NADH + H+ + Fumarate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://modelseed.org/biochem/reactions/rxn00284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">not in the curated model, but supported by: https://pubmed.ncbi.nlm.nih.gov/28049145/, https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5210497/#B16, https://onlinelibrary.wiley.com/doi/full/10.1046/j.1365-2958.2001.02343.x?sid=nlm%3Apubmed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PFL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rxn00157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acetyl-CoA:formate C-acetyltransferase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acetyl-CoA + Formate &lt;=&gt; CoA + Pyruvate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://modelseed.org/biochem/reactions/rxn00157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POR_syn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rxn13974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pyruvate:ferredoxin 2-oxidoreductase (CoA-acetylating)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CO2 + Acetyl-CoA + H+ + (2) Reducedferredoxin &lt;= CoA + Pyruvate + (2) Oxidizedferredoxin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://modelseed.org/biochem/reactions/rxn13974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/pmc/articles/PMC7572596/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PTAr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rxn00173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">acetyl-CoA:phosphate acetyltransferase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phosphate + Acetyl-CoA &lt;=&gt; CoA + Acetylphosphate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://modelseed.org/biochem/reactions/rxn00173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACKr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rxn00225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATP:acetate phosphotransferase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATP + Acetate &lt;=&gt; ADP + Acetylphosphate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://modelseed.org/biochem/reactions/rxn00225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LDH_L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rxn00499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(S)-Lactate:NAD+ oxidoreductase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NAD + L-Lactate &lt;=&gt; NADH + Pyruvate + H+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://modelseed.org/biochem/reactions/rxn00499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RNF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ferredoxin:NAD oxidoreductase ( 2 protons traslocation)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(3)H+ + NAD + (2) Reduced-ferredoxins &lt;=&gt; NADH + (2) H+[1] + (2) Oxidized-ferredoxins</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://bigg.ucsd.edu/universal/reactions/RNF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">not in found in mSEED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biomass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mock objective</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(2) Acetyl-CoA + (3) ATP + (2) NADH + (2) H+ =&gt; Biomass + (3) ADP + (2) NAD + (2) CoA</t>
+    <t>ID (BIGG)</t>
+  </si>
+  <si>
+    <t>ID (SEED)</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Reaction</t>
+  </si>
+  <si>
+    <t>exchange</t>
+  </si>
+  <si>
+    <t>SEED link</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>GLCt2r</t>
+  </si>
+  <si>
+    <t>rxn05573</t>
+  </si>
+  <si>
+    <t>D-glucose transport in via proton symport</t>
+  </si>
+  <si>
+    <t>D-Glucose[1] + H+[1] &lt;=&gt; D-Glucose + H+</t>
+  </si>
+  <si>
+    <t>D-Glucose[1]</t>
+  </si>
+  <si>
+    <t>https://modelseed.org/biochem/reactions/rxn05573</t>
+  </si>
+  <si>
+    <t>HEX1</t>
+  </si>
+  <si>
+    <t>rxn00216</t>
+  </si>
+  <si>
+    <t>ATP:D-glucose 6-phosphotransferase</t>
+  </si>
+  <si>
+    <t>ATP + D-Glucose =&gt; ADP + H+ + D-glucose-6-phosphate</t>
+  </si>
+  <si>
+    <t>https://modelseed.org/biochem/reactions/rxn00216</t>
+  </si>
+  <si>
+    <t>PGI</t>
+  </si>
+  <si>
+    <t>rxn00558</t>
+  </si>
+  <si>
+    <t>D-glucose-6-phosphate aldose-ketose-isomerase</t>
+  </si>
+  <si>
+    <t>D-glucose-6-phosphate &lt;=&gt; D-fructose-6-phosphate</t>
+  </si>
+  <si>
+    <t>https://modelseed.org/biochem/reactions/rxn00558</t>
+  </si>
+  <si>
+    <t>PFK</t>
+  </si>
+  <si>
+    <t>rxn00545 </t>
+  </si>
+  <si>
+    <t>ATP:D-fructose-6-phosphate 1-phosphotransferase</t>
+  </si>
+  <si>
+    <t>ATP + D-fructose-6-phosphate =&gt; ADP + H+ + D-fructose-1,6-bisphosphate</t>
+  </si>
+  <si>
+    <t>https://modelseed.org/biochem/reactions/rxn00545</t>
+  </si>
+  <si>
+    <t>FBA</t>
+  </si>
+  <si>
+    <t>rxn00786</t>
+  </si>
+  <si>
+    <t>D-fructose-1,6-bisphosphate D-glyceraldehyde-3-phosphate-lyase (glycerone-phosphate-forming)</t>
+  </si>
+  <si>
+    <t>D-fructose-1,6-bisphosphate &lt;=&gt; Glycerone-phosphate + Glyceraldehyde3-phosphate</t>
+  </si>
+  <si>
+    <t>https://modelseed.org/biochem/reactions/rxn00786</t>
+  </si>
+  <si>
+    <t>TPI</t>
+  </si>
+  <si>
+    <t>rxn00747</t>
+  </si>
+  <si>
+    <t>D-glyceraldehyde-3-phosphate aldose-ketose-isomerase</t>
+  </si>
+  <si>
+    <t>Glyceraldehyde3-phosphate &lt;=&gt; Glycerone-phosphate</t>
+  </si>
+  <si>
+    <t>https://modelseed.org/biochem/reactions/rxn00747</t>
+  </si>
+  <si>
+    <t>GAPD</t>
+  </si>
+  <si>
+    <t>rxn00781</t>
+  </si>
+  <si>
+    <t>D-glyceraldehyde-3-phosphate:NAD+ oxidoreductase (phosphorylating)</t>
+  </si>
+  <si>
+    <t>NAD + Phosphate + Glyceraldehyde3-phosphate &lt;=&gt; NADH + H+ + 1,3-Bisphospho-D-glycerate</t>
+  </si>
+  <si>
+    <t>https://modelseed.org/biochem/reactions/rxn00781</t>
+  </si>
+  <si>
+    <t>PGK</t>
+  </si>
+  <si>
+    <t>rxn01100</t>
+  </si>
+  <si>
+    <t>ATP:3-phospho-D-glycerate 1-phosphotransferase</t>
+  </si>
+  <si>
+    <t>ATP + 3-Phosphoglycerate &lt;=&gt; ADP + 1,3-Bisphospho-D-glycerate</t>
+  </si>
+  <si>
+    <t>https://modelseed.org/biochem/reactions/rxn01100</t>
+  </si>
+  <si>
+    <t>PGM</t>
+  </si>
+  <si>
+    <t>rxn01106</t>
+  </si>
+  <si>
+    <t>2-Phospho-D-glycerate 2,3-phosphomutase</t>
+  </si>
+  <si>
+    <t>2-Phospho-D-glycerate &lt;=&gt; 3-Phosphoglycerate</t>
+  </si>
+  <si>
+    <t>https://modelseed.org/biochem/reactions/rxn01106</t>
+  </si>
+  <si>
+    <t>ENO</t>
+  </si>
+  <si>
+    <t>rxn00459 </t>
+  </si>
+  <si>
+    <t>2-phospho-D-glycerate hydro-lyase (phosphoenolpyruvate-forming)</t>
+  </si>
+  <si>
+    <t>2-Phospho-D-glycerate &lt;=&gt; H2O + Phosphoenolpyruvate</t>
+  </si>
+  <si>
+    <t>https://modelseed.org/biochem/reactions/rxn00459</t>
+  </si>
+  <si>
+    <t>PYK</t>
+  </si>
+  <si>
+    <t>rxn00148</t>
+  </si>
+  <si>
+    <t>ATP:pyruvate 2-O-phosphotransferase</t>
+  </si>
+  <si>
+    <t>ATP + Pyruvate &lt;=&gt; ADP + Phosphoenolpyruvate + H+</t>
+  </si>
+  <si>
+    <t>https://modelseed.org/biochem/reactions/rxn00148</t>
+  </si>
+  <si>
+    <t>PPCKr</t>
+  </si>
+  <si>
+    <t>rxn00247</t>
+  </si>
+  <si>
+    <t>ATP:oxaloacetate carboxy-lyase (transphosphorylating;phosphoenolpyruvate-forming)</t>
+  </si>
+  <si>
+    <t>ATP + Oxaloacetate &lt;=&gt; ADP + CO2 + Phosphoenolpyruvate</t>
+  </si>
+  <si>
+    <t>https://modelseed.org/biochem/reactions/rxn00247</t>
+  </si>
+  <si>
+    <t>reference of it being reversed in Bacteroides fragilis: https://www.frontiersin.org/articles/10.3389/fmicb.2015.00825/full (PEP carboxykinase); other nice ref: https://www.sciencedirect.com/science/article/pii/S1931312811002952</t>
+  </si>
+  <si>
+    <t>MDH</t>
+  </si>
+  <si>
+    <t>rxn00248</t>
+  </si>
+  <si>
+    <t>(S)-malate:NAD+ oxidoreductase</t>
+  </si>
+  <si>
+    <t>NAD + L-Malate &lt;=&gt; NADH + Oxaloacetate + H+</t>
+  </si>
+  <si>
+    <t>https://modelseed.org/biochem/reactions/rxn00248</t>
+  </si>
+  <si>
+    <t>FUM</t>
+  </si>
+  <si>
+    <t>rxn00799</t>
+  </si>
+  <si>
+    <t>(S)-malate hydro-lyase (fumarate-forming)</t>
+  </si>
+  <si>
+    <t>L-Malate &lt;=&gt; H2O + Fumarate</t>
+  </si>
+  <si>
+    <t>https://modelseed.org/biochem/reactions/rxn00799</t>
+  </si>
+  <si>
+    <t>FRDx</t>
+  </si>
+  <si>
+    <t>rxn00284</t>
+  </si>
+  <si>
+    <t>succinate:NAD+ oxidoreductase</t>
+  </si>
+  <si>
+    <t>NAD + Succinate &lt;= NADH + H+ + Fumarate</t>
+  </si>
+  <si>
+    <t>https://modelseed.org/biochem/reactions/rxn00284</t>
+  </si>
+  <si>
+    <t>not in the curated model, but supported by: https://pubmed.ncbi.nlm.nih.gov/28049145/, https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5210497/#B16, https://onlinelibrary.wiley.com/doi/full/10.1046/j.1365-2958.2001.02343.x?sid=nlm%3Apubmed</t>
+  </si>
+  <si>
+    <t>PFL</t>
+  </si>
+  <si>
+    <t>rxn00157</t>
+  </si>
+  <si>
+    <t>Acetyl-CoA:formate C-acetyltransferase</t>
+  </si>
+  <si>
+    <t>Acetyl-CoA + Formate &lt;=&gt; CoA + Pyruvate</t>
+  </si>
+  <si>
+    <t>https://modelseed.org/biochem/reactions/rxn00157</t>
+  </si>
+  <si>
+    <t>POR_syn</t>
+  </si>
+  <si>
+    <t>rxn13974</t>
+  </si>
+  <si>
+    <t>pyruvate:ferredoxin 2-oxidoreductase (CoA-acetylating)</t>
+  </si>
+  <si>
+    <t>CO2 + Acetyl-CoA + H+ + (2) Reducedferredoxin &lt;= CoA + Pyruvate + (2) Oxidizedferredoxin</t>
+  </si>
+  <si>
+    <t>https://modelseed.org/biochem/reactions/rxn13974</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC7572596/</t>
+  </si>
+  <si>
+    <t>PTAr</t>
+  </si>
+  <si>
+    <t>rxn00173</t>
+  </si>
+  <si>
+    <t>acetyl-CoA:phosphate acetyltransferase</t>
+  </si>
+  <si>
+    <t>Phosphate + Acetyl-CoA &lt;=&gt; CoA + Acetylphosphate</t>
+  </si>
+  <si>
+    <t>https://modelseed.org/biochem/reactions/rxn00173</t>
+  </si>
+  <si>
+    <t>ACKr</t>
+  </si>
+  <si>
+    <t>rxn00225</t>
+  </si>
+  <si>
+    <t>ATP:acetate phosphotransferase</t>
+  </si>
+  <si>
+    <t>ATP + Acetate &lt;=&gt; ADP + Acetylphosphate</t>
+  </si>
+  <si>
+    <t>https://modelseed.org/biochem/reactions/rxn00225</t>
+  </si>
+  <si>
+    <t>LDH_L</t>
+  </si>
+  <si>
+    <t>rxn00499</t>
+  </si>
+  <si>
+    <t>(S)-Lactate:NAD+ oxidoreductase</t>
+  </si>
+  <si>
+    <t>NAD + L-Lactate &lt;=&gt; NADH + Pyruvate + H+</t>
+  </si>
+  <si>
+    <t>https://modelseed.org/biochem/reactions/rxn00499</t>
+  </si>
+  <si>
+    <t>RNF</t>
+  </si>
+  <si>
+    <t>Ferredoxin:NAD oxidoreductase ( 2 protons traslocation)</t>
+  </si>
+  <si>
+    <t>(3)H+ + NAD + (2) Reduced-ferredoxins &lt;=&gt; NADH + (2) H+[1] + (2) Oxidized-ferredoxins</t>
+  </si>
+  <si>
+    <t>http://bigg.ucsd.edu/universal/reactions/RNF</t>
+  </si>
+  <si>
+    <t>not in found in mSEED</t>
+  </si>
+  <si>
+    <t>biomass</t>
+  </si>
+  <si>
+    <t>mock objective</t>
+  </si>
+  <si>
+    <t>(2) Acetyl-CoA + (3) ATP + (2) NADH + (2) H+ =&gt; Biomass + (3) ADP + (2) NAD + (2) CoA</t>
   </si>
   <si>
     <t xml:space="preserve">rxn05654  </t>
   </si>
   <si>
-    <t xml:space="preserve">Transport of succinate, extracellular</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Succinate + H+[1] &lt;=&gt; Succinate + H+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Succinate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://modelseed.org/biochem/reactions/rxn05654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EX_for_e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">formate exchange</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Formate &lt;=&gt; Formate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Formate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://bigg.ucsd.edu/universal/reactions/EX_for_e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EX_lac__L_e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L-Lactate exchange</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D,L lactate &lt;=&gt; D,L lactate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D,L lactate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://bigg.ucsd.edu/universal/reactions/EX_lac__L_e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">the compound name was found manually from the ModelSEED compounds file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EX_ac_e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">acetate exchange</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acetate &lt;=&gt; Acetate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acetate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://bigg.ucsd.edu/universal/reactions/EX_ac_e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GLCabc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rxn05147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D-Glucose-ABC transport</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H2O + ATP + D-Glucose[1] =&gt; ADP + Phosphate + D-Glucose + H+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://modelseed.org/biochem/reactions/rxn05147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POR4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rxn05938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pyruvate ferredoxin oxidoreductase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CO2 + Acetyl-CoA + H+ + Reducedferredoxin &lt;= CoA + Pyruvate + Oxidizedferredoxin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://modelseed.org/biochem/reactions/rxn05938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACACT1r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rxn00178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acetyl-CoA:acetyl-CoA C-acetyltransferase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(2) Acetyl-CoA &lt;=&gt; CoA + Acetoacetyl-CoA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://modelseed.org/biochem/reactions/rxn00178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PHPB2i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rxn27735 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(R)-3-Hydroxybutanoyl-CoA:NADP+ oxidoreductase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NADH + H+ + Acetoacetyl-CoA &lt;=&gt; NAD + (R)-3-Hydroxybutanoyl-CoA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://modelseed.org/biochem/reactions/rxn27735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NADPH not balanced, used a reaction with NADH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECOAH1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rxn02167 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(S)-3-Hydroxybutanoyl-CoA hydro-lyase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(S)-3-Hydroxybutyryl-CoA &lt;=&gt; H2O + Crotonyl-CoA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://modelseed.org/biochem/reactions/rxn02167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BTCOADH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rxn19247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">short-chain acyl-coenzyme A dehydrogenase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crotonoyl-CoA + Oxidizedferredoxin + (2) H+ + (2) NADH &lt;=&gt; Butyryl-CoA + Reducedferredoxin + (2) NAD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://modelseed.org/biochem/reactions/rxn19247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mseed reaction: H+ + Butyryl-CoA + ETF-Oxidized &lt;= Crotonyl-CoA + ETF-Reduced; rewritten using ferredoxin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BTCOAACCOAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rxn00875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Butanoyl-CoA:acetate CoA-transferase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acetate + Butyryl-CoA &lt;=&gt; Acetyl-CoA + Butyrate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://modelseed.org/biochem/reactions/rxn00875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATPS4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rxn08173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F(1)-ATPase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADP + Phosphate + (4) H+[1] =&gt; H2O + ATP + (3) H+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://modelseed.org/biochem/reactions/rxn08173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HYDFDi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rxn45849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ferredoxin hydrogenase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H2 + (2) Oxidized-ferredoxins &lt;=&gt; (2) H+ + (2) Reduced-ferredoxins</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://modelseed.org/biochem/reactions/rxn45849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.microbiologyresearch.org/docserver/fulltext/mgen/6/7/mgen000399.pdf?expires=1650575723&amp;id=id&amp;accname=guest&amp;checksum=87B9C463F9DB981EF95614758ACAF16D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(3)H+ + NAD + (2) Reduced-ferredoxins ⇌ NADH + (2) H+[1] + (2) Oxidized-ferredoxins</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TREpts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rxn02005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">trehalose transport via PEP:Pyr PTS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phosphoenolpyruvate + TRHL[1] &lt;=&gt; Pyruvate + Trehalose 6-phosphate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://modelseed.org/biochem/reactions/rxn02005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRE6PH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rxn00606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alpha,alpha-Trehalose-6-phosphate phosphoglucohydrolase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H2O + Trehalose 6-phosphate =&gt; D-Glucose + D-glucose-6-phosphate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://modelseed.org/biochem/reactions/rxn00606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FTHFL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rxn00690 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Formate:tetrahydrofolate ligase (ADP-forming)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATP + Formate + Tetrahydrofolate &lt;=&gt; ADP + Phosphate + 10-Formyltetrahydrofolate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://modelseed.org/biochem/reactions/rxn00690</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MTHFC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rxn01211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5,10-Methenyltetrahydrofolate 5-hydrolase (decyclizing)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H2O + 5-10-Methenyltetrahydrofolate &lt;= H+ + 10-Formyltetrahydrofolate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://modelseed.org/biochem/reactions/rxn01211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MTHFD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rxn00906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5,10-methylenetetrahydrofolate:NAD+ oxidoreductase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NAD + 5-10-Methylenetetrahydrofolate &lt;=&gt; NADH + 5-10-Methenyltetrahydrofolate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://modelseed.org/biochem/reactions/rxn00906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MTHFR2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rxn04954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5-methyltetrahydrofolate:NAD+ oxidoreductase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NAD + 5-Methyltetrahydrofolate &lt;=&gt; NADH + H+ + 5-10-Methylenetetrahydrofolate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://modelseed.org/biochem/reactions/rxn04954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">METR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rxn06149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5-Methyltetrahydrofolate:Corrinoid Co-methyltransferase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H+ + 5-Methyltetrahydrofolate + Corrinoid &lt;=&gt; Tetrahydrofolate + Methylcorrinoid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://modelseed.org/biochem/reactions/rxn06149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CODH_ACS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rxn39948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CODH/Acetyl-CoA synthase (Wood-Ljundahl)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CoA + CO2 + H+ + Reducedferredoxin + Methylcorrinoid &lt;=&gt; H2O + Acetyl-CoA + Oxidizedferredoxin + Corrinoid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://modelseed.org/biochem/reactions/rxn39948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rxn05887 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hydrogen:NAD+ oxidoreductase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NAD + H2 &lt;=&gt; NADH + H+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://modelseed.org/biochem/reactions/rxn05887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">not in BIGG</t>
+    <t>Transport of succinate, extracellular</t>
+  </si>
+  <si>
+    <t>Succinate + H+[1] &lt;=&gt; Succinate + H+</t>
+  </si>
+  <si>
+    <t>Succinate</t>
+  </si>
+  <si>
+    <t>https://modelseed.org/biochem/reactions/rxn05654</t>
+  </si>
+  <si>
+    <t>EX_for_e</t>
+  </si>
+  <si>
+    <t>formate exchange</t>
+  </si>
+  <si>
+    <t>Formate &lt;=&gt; Formate</t>
+  </si>
+  <si>
+    <t>Formate</t>
+  </si>
+  <si>
+    <t>http://bigg.ucsd.edu/universal/reactions/EX_for_e</t>
+  </si>
+  <si>
+    <t>EX_lac__L_e</t>
+  </si>
+  <si>
+    <t>L-Lactate exchange</t>
+  </si>
+  <si>
+    <t>D,L lactate &lt;=&gt; D,L lactate</t>
+  </si>
+  <si>
+    <t>D,L lactate</t>
+  </si>
+  <si>
+    <t>http://bigg.ucsd.edu/universal/reactions/EX_lac__L_e</t>
+  </si>
+  <si>
+    <t>the compound name was found manually from the ModelSEED compounds file</t>
+  </si>
+  <si>
+    <t>EX_ac_e</t>
+  </si>
+  <si>
+    <t>acetate exchange</t>
+  </si>
+  <si>
+    <t>Acetate &lt;=&gt; Acetate</t>
+  </si>
+  <si>
+    <t>Acetate</t>
+  </si>
+  <si>
+    <t>http://bigg.ucsd.edu/universal/reactions/EX_ac_e</t>
+  </si>
+  <si>
+    <t>GLCabc</t>
+  </si>
+  <si>
+    <t>rxn05147</t>
+  </si>
+  <si>
+    <t>D-Glucose-ABC transport</t>
+  </si>
+  <si>
+    <t>H2O + ATP + D-Glucose[1] =&gt; ADP + Phosphate + D-Glucose + H+</t>
+  </si>
+  <si>
+    <t>https://modelseed.org/biochem/reactions/rxn05147</t>
+  </si>
+  <si>
+    <t>POR4</t>
+  </si>
+  <si>
+    <t>rxn05938</t>
+  </si>
+  <si>
+    <t>pyruvate ferredoxin oxidoreductase</t>
+  </si>
+  <si>
+    <t>CO2 + Acetyl-CoA + H+ + Reducedferredoxin &lt;= CoA + Pyruvate + Oxidizedferredoxin</t>
+  </si>
+  <si>
+    <t>https://modelseed.org/biochem/reactions/rxn05938</t>
+  </si>
+  <si>
+    <t>ACACT1r</t>
+  </si>
+  <si>
+    <t>rxn00178</t>
+  </si>
+  <si>
+    <t>Acetyl-CoA:acetyl-CoA C-acetyltransferase</t>
+  </si>
+  <si>
+    <t>(2) Acetyl-CoA &lt;=&gt; CoA + Acetoacetyl-CoA</t>
+  </si>
+  <si>
+    <t>https://modelseed.org/biochem/reactions/rxn00178</t>
+  </si>
+  <si>
+    <t>PHPB2i</t>
+  </si>
+  <si>
+    <t>rxn27735 </t>
+  </si>
+  <si>
+    <t>(R)-3-Hydroxybutanoyl-CoA:NADP+ oxidoreductase</t>
+  </si>
+  <si>
+    <t>NADH + H+ + Acetoacetyl-CoA &lt;=&gt; NAD + (R)-3-Hydroxybutanoyl-CoA</t>
+  </si>
+  <si>
+    <t>https://modelseed.org/biochem/reactions/rxn27735</t>
+  </si>
+  <si>
+    <t>NADPH not balanced, used a reaction with NADH</t>
+  </si>
+  <si>
+    <t>ECOAH1</t>
+  </si>
+  <si>
+    <t>rxn02167 </t>
+  </si>
+  <si>
+    <t>(S)-3-Hydroxybutanoyl-CoA hydro-lyase</t>
+  </si>
+  <si>
+    <t>(S)-3-Hydroxybutyryl-CoA &lt;=&gt; H2O + Crotonyl-CoA</t>
+  </si>
+  <si>
+    <t>https://modelseed.org/biochem/reactions/rxn02167</t>
+  </si>
+  <si>
+    <t>BTCOADH</t>
+  </si>
+  <si>
+    <t>rxn19247</t>
+  </si>
+  <si>
+    <t>short-chain acyl-coenzyme A dehydrogenase</t>
+  </si>
+  <si>
+    <t>Crotonoyl-CoA + Oxidizedferredoxin + (2) H+ + (2) NADH &lt;=&gt; Butyryl-CoA + Reducedferredoxin + (2) NAD</t>
+  </si>
+  <si>
+    <t>https://modelseed.org/biochem/reactions/rxn19247</t>
+  </si>
+  <si>
+    <t>mseed reaction: H+ + Butyryl-CoA + ETF-Oxidized &lt;= Crotonyl-CoA + ETF-Reduced; rewritten using ferredoxin</t>
+  </si>
+  <si>
+    <t>BTCOAACCOAT</t>
+  </si>
+  <si>
+    <t>rxn00875</t>
+  </si>
+  <si>
+    <t>Butanoyl-CoA:acetate CoA-transferase</t>
+  </si>
+  <si>
+    <t>Acetate + Butyryl-CoA &lt;=&gt; Acetyl-CoA + Butyrate</t>
+  </si>
+  <si>
+    <t>https://modelseed.org/biochem/reactions/rxn00875</t>
+  </si>
+  <si>
+    <t>ATPS4</t>
+  </si>
+  <si>
+    <t>rxn08173</t>
+  </si>
+  <si>
+    <t>F(1)-ATPase</t>
+  </si>
+  <si>
+    <t>ADP + Phosphate + (4) H+[1] =&gt; H2O + ATP + (3) H+</t>
+  </si>
+  <si>
+    <t>https://modelseed.org/biochem/reactions/rxn08173</t>
+  </si>
+  <si>
+    <t>HYDFDi</t>
+  </si>
+  <si>
+    <t>rxn45849</t>
+  </si>
+  <si>
+    <t>Ferredoxin hydrogenase</t>
+  </si>
+  <si>
+    <t>H2 + (2) Oxidized-ferredoxins &lt;=&gt; (2) H+ + (2) Reduced-ferredoxins</t>
+  </si>
+  <si>
+    <t>https://modelseed.org/biochem/reactions/rxn45849</t>
+  </si>
+  <si>
+    <t>https://www.microbiologyresearch.org/docserver/fulltext/mgen/6/7/mgen000399.pdf?expires=1650575723&amp;id=id&amp;accname=guest&amp;checksum=87B9C463F9DB981EF95614758ACAF16D</t>
+  </si>
+  <si>
+    <t>(3)H+ + NAD + (2) Reduced-ferredoxins ⇌ NADH + (2) H+[1] + (2) Oxidized-ferredoxins</t>
+  </si>
+  <si>
+    <t>TREpts</t>
+  </si>
+  <si>
+    <t>rxn02005</t>
+  </si>
+  <si>
+    <t>trehalose transport via PEP:Pyr PTS</t>
+  </si>
+  <si>
+    <t>Phosphoenolpyruvate + TRHL[1] &lt;=&gt; Pyruvate + Trehalose 6-phosphate</t>
+  </si>
+  <si>
+    <t>https://modelseed.org/biochem/reactions/rxn02005</t>
+  </si>
+  <si>
+    <t>TRE6PH</t>
+  </si>
+  <si>
+    <t>rxn00606</t>
+  </si>
+  <si>
+    <t>alpha,alpha-Trehalose-6-phosphate phosphoglucohydrolase</t>
+  </si>
+  <si>
+    <t>H2O + Trehalose 6-phosphate =&gt; D-Glucose + D-glucose-6-phosphate</t>
+  </si>
+  <si>
+    <t>https://modelseed.org/biochem/reactions/rxn00606</t>
+  </si>
+  <si>
+    <t>FTHFL</t>
+  </si>
+  <si>
+    <t>rxn00690 </t>
+  </si>
+  <si>
+    <t>Formate:tetrahydrofolate ligase (ADP-forming)</t>
+  </si>
+  <si>
+    <t>ATP + Formate + Tetrahydrofolate &lt;=&gt; ADP + Phosphate + 10-Formyltetrahydrofolate</t>
+  </si>
+  <si>
+    <t>https://modelseed.org/biochem/reactions/rxn00690</t>
+  </si>
+  <si>
+    <t>MTHFC</t>
+  </si>
+  <si>
+    <t>rxn01211</t>
+  </si>
+  <si>
+    <t>5,10-Methenyltetrahydrofolate 5-hydrolase (decyclizing)</t>
+  </si>
+  <si>
+    <t>H2O + 5-10-Methenyltetrahydrofolate &lt;= H+ + 10-Formyltetrahydrofolate</t>
+  </si>
+  <si>
+    <t>https://modelseed.org/biochem/reactions/rxn01211</t>
+  </si>
+  <si>
+    <t>MTHFD</t>
+  </si>
+  <si>
+    <t>rxn00906</t>
+  </si>
+  <si>
+    <t>5,10-methylenetetrahydrofolate:NAD+ oxidoreductase</t>
+  </si>
+  <si>
+    <t>NAD + 5-10-Methylenetetrahydrofolate &lt;=&gt; NADH + 5-10-Methenyltetrahydrofolate</t>
+  </si>
+  <si>
+    <t>https://modelseed.org/biochem/reactions/rxn00906</t>
+  </si>
+  <si>
+    <t>MTHFR2</t>
+  </si>
+  <si>
+    <t>rxn04954</t>
+  </si>
+  <si>
+    <t>5-methyltetrahydrofolate:NAD+ oxidoreductase</t>
+  </si>
+  <si>
+    <t>NAD + 5-Methyltetrahydrofolate &lt;=&gt; NADH + H+ + 5-10-Methylenetetrahydrofolate</t>
+  </si>
+  <si>
+    <t>https://modelseed.org/biochem/reactions/rxn04954</t>
+  </si>
+  <si>
+    <t>METR</t>
+  </si>
+  <si>
+    <t>rxn06149</t>
+  </si>
+  <si>
+    <t>5-Methyltetrahydrofolate:Corrinoid Co-methyltransferase</t>
+  </si>
+  <si>
+    <t>H+ + 5-Methyltetrahydrofolate + Corrinoid &lt;=&gt; Tetrahydrofolate + Methylcorrinoid</t>
+  </si>
+  <si>
+    <t>https://modelseed.org/biochem/reactions/rxn06149</t>
+  </si>
+  <si>
+    <t>CODH_ACS</t>
+  </si>
+  <si>
+    <t>rxn39948</t>
+  </si>
+  <si>
+    <t>CODH/Acetyl-CoA synthase (Wood-Ljundahl)</t>
+  </si>
+  <si>
+    <t>CoA + CO2 + H+ + Reducedferredoxin + Methylcorrinoid &lt;=&gt; H2O + Acetyl-CoA + Oxidizedferredoxin + Corrinoid</t>
+  </si>
+  <si>
+    <t>https://modelseed.org/biochem/reactions/rxn39948</t>
+  </si>
+  <si>
+    <t>rxn05887 </t>
+  </si>
+  <si>
+    <t>Hydrogen:NAD+ oxidoreductase</t>
+  </si>
+  <si>
+    <t>NAD + H2 &lt;=&gt; NADH + H+</t>
+  </si>
+  <si>
+    <t>https://modelseed.org/biochem/reactions/rxn05887</t>
+  </si>
+  <si>
+    <t>not in BIGG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -742,22 +744,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -771,7 +758,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
@@ -779,7 +766,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
@@ -796,7 +783,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -804,69 +791,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="*unknown*" xfId="20" builtinId="8" customBuiltin="false"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -925,34 +869,343 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:G28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25:G27"/>
+    <sheetView topLeftCell="A17" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="36.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="76.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="43.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="207.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.67"/>
+    <col min="1" max="1" width="11.73046875" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="3" width="36.9296875" customWidth="1"/>
+    <col min="4" max="4" width="76.796875" customWidth="1"/>
+    <col min="5" max="5" width="43.796875" customWidth="1"/>
+    <col min="6" max="6" width="44.06640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="207.53125" customWidth="1"/>
+    <col min="9" max="1025" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -975,7 +1228,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -996,7 +1249,7 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -1015,7 +1268,7 @@
       </c>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
@@ -1034,7 +1287,7 @@
       </c>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>23</v>
       </c>
@@ -1053,7 +1306,7 @@
       </c>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>28</v>
       </c>
@@ -1072,7 +1325,7 @@
       </c>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>33</v>
       </c>
@@ -1091,7 +1344,7 @@
       </c>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>38</v>
       </c>
@@ -1110,7 +1363,7 @@
       </c>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>43</v>
       </c>
@@ -1129,7 +1382,7 @@
       </c>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>48</v>
       </c>
@@ -1148,7 +1401,7 @@
       </c>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>53</v>
       </c>
@@ -1167,7 +1420,7 @@
       </c>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
         <v>58</v>
       </c>
@@ -1186,7 +1439,7 @@
       </c>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
         <v>63</v>
       </c>
@@ -1207,7 +1460,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>69</v>
       </c>
@@ -1226,7 +1479,7 @@
       </c>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>74</v>
       </c>
@@ -1245,7 +1498,7 @@
       </c>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="5" t="s">
         <v>79</v>
       </c>
@@ -1266,7 +1519,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
         <v>85</v>
       </c>
@@ -1285,7 +1538,7 @@
       </c>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" s="5" t="s">
         <v>90</v>
       </c>
@@ -1306,7 +1559,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
         <v>96</v>
       </c>
@@ -1325,7 +1578,7 @@
       </c>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" s="2" t="s">
         <v>101</v>
       </c>
@@ -1344,7 +1597,7 @@
       </c>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">
         <v>106</v>
       </c>
@@ -1363,7 +1616,7 @@
       </c>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" s="2" t="s">
         <v>111</v>
       </c>
@@ -1378,130 +1631,121 @@
       <c r="F22" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="G22" s="0" t="s">
+      <c r="G22" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
         <v>116</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D23" s="0" t="s">
+      <c r="D23" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="0" t="s">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B24" t="s">
         <v>119</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="C24" t="s">
         <v>120</v>
       </c>
-      <c r="D24" s="0" t="s">
+      <c r="D24" t="s">
         <v>121</v>
       </c>
-      <c r="E24" s="0" t="s">
+      <c r="E24" t="s">
         <v>122</v>
       </c>
-      <c r="F24" s="0" t="s">
+      <c r="F24" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
         <v>124</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" t="s">
         <v>125</v>
       </c>
-      <c r="D25" s="0" t="s">
+      <c r="D25" t="s">
         <v>126</v>
       </c>
-      <c r="E25" s="0" t="s">
+      <c r="E25" t="s">
         <v>127</v>
       </c>
-      <c r="F25" s="0" t="s">
+      <c r="F25" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
         <v>129</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" t="s">
         <v>130</v>
       </c>
-      <c r="D26" s="0" t="s">
+      <c r="D26" t="s">
         <v>131</v>
       </c>
-      <c r="E26" s="0" t="s">
+      <c r="E26" t="s">
         <v>132</v>
       </c>
-      <c r="F26" s="0" t="s">
+      <c r="F26" t="s">
         <v>133</v>
       </c>
-      <c r="G26" s="0" t="s">
+      <c r="G26" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
         <v>135</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="C27" t="s">
         <v>136</v>
       </c>
-      <c r="D27" s="0" t="s">
+      <c r="D27" t="s">
         <v>137</v>
       </c>
-      <c r="E27" s="0" t="s">
+      <c r="E27" t="s">
         <v>138</v>
       </c>
-      <c r="F27" s="0" t="s">
+      <c r="F27" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1" display="https://modelseed.org/biochem/reactions/rxn00216"/>
+    <hyperlink ref="F3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F4" activeCellId="1" sqref="A25:G27 F4"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="78.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="42.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="65.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="8.67"/>
+    <col min="1" max="1" width="12.59765625" customWidth="1"/>
+    <col min="2" max="2" width="8.73046875" customWidth="1"/>
+    <col min="3" max="3" width="78.19921875" customWidth="1"/>
+    <col min="4" max="4" width="84" customWidth="1"/>
+    <col min="5" max="5" width="42.59765625" customWidth="1"/>
+    <col min="6" max="6" width="65.06640625" customWidth="1"/>
+    <col min="7" max="1025" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1521,7 +1765,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>140</v>
       </c>
@@ -1538,7 +1782,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -1555,7 +1799,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>23</v>
       </c>
@@ -1572,7 +1816,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>28</v>
       </c>
@@ -1589,7 +1833,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>33</v>
       </c>
@@ -1606,7 +1850,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>38</v>
       </c>
@@ -1623,7 +1867,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>43</v>
       </c>
@@ -1640,7 +1884,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>48</v>
       </c>
@@ -1657,7 +1901,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>53</v>
       </c>
@@ -1674,7 +1918,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>58</v>
       </c>
@@ -1691,7 +1935,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
         <v>106</v>
       </c>
@@ -1708,7 +1952,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
         <v>145</v>
       </c>
@@ -1725,7 +1969,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>96</v>
       </c>
@@ -1742,7 +1986,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>101</v>
       </c>
@@ -1759,7 +2003,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
         <v>150</v>
       </c>
@@ -1776,7 +2020,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
         <v>155</v>
       </c>
@@ -1796,7 +2040,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
         <v>161</v>
       </c>
@@ -1813,7 +2057,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
         <v>166</v>
       </c>
@@ -1829,11 +2073,11 @@
       <c r="E19" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="F19" s="0" t="s">
+      <c r="F19" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" s="2" t="s">
         <v>172</v>
       </c>
@@ -1850,7 +2094,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">
         <v>177</v>
       </c>
@@ -1867,7 +2111,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" s="5" t="s">
         <v>182</v>
       </c>
@@ -1883,11 +2127,11 @@
       <c r="E22" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="F22" s="0" t="s">
+      <c r="F22" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" s="2" t="s">
         <v>111</v>
       </c>
@@ -1901,54 +2145,46 @@
       <c r="E23" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="F23" s="0" t="s">
+      <c r="F23" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C24" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D24" s="0" t="s">
+      <c r="D24" t="s">
         <v>118</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1" display="https://modelseed.org/biochem/reactions/rxn00216"/>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A25:G27 A1"/>
+    <sheetView topLeftCell="A8" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCellId="1" sqref="A25:G27 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="78.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="89.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="42.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="8.67"/>
+    <col min="1" max="1" width="9.33203125" customWidth="1"/>
+    <col min="2" max="2" width="8.73046875" customWidth="1"/>
+    <col min="3" max="3" width="78.19921875" customWidth="1"/>
+    <col min="4" max="4" width="89.06640625" customWidth="1"/>
+    <col min="5" max="5" width="42.59765625" customWidth="1"/>
+    <col min="6" max="1025" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1968,7 +2204,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>189</v>
       </c>
@@ -1985,7 +2221,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>194</v>
       </c>
@@ -2002,7 +2238,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>140</v>
       </c>
@@ -2019,7 +2255,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -2036,7 +2272,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
@@ -2053,7 +2289,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>23</v>
       </c>
@@ -2070,7 +2306,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>28</v>
       </c>
@@ -2087,7 +2323,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>33</v>
       </c>
@@ -2104,7 +2340,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>38</v>
       </c>
@@ -2121,7 +2357,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>43</v>
       </c>
@@ -2138,7 +2374,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
         <v>48</v>
       </c>
@@ -2155,7 +2391,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
         <v>53</v>
       </c>
@@ -2172,7 +2408,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>58</v>
       </c>
@@ -2189,7 +2425,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>145</v>
       </c>
@@ -2206,7 +2442,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
         <v>85</v>
       </c>
@@ -2223,7 +2459,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
         <v>106</v>
       </c>
@@ -2240,7 +2476,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
         <v>199</v>
       </c>
@@ -2257,7 +2493,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
         <v>204</v>
       </c>
@@ -2274,7 +2510,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" s="2" t="s">
         <v>209</v>
       </c>
@@ -2291,7 +2527,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" s="5" t="s">
         <v>214</v>
       </c>
@@ -2308,7 +2544,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" s="2" t="s">
         <v>219</v>
       </c>
@@ -2325,7 +2561,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" s="2" t="s">
         <v>224</v>
       </c>
@@ -2342,7 +2578,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" s="2" t="s">
         <v>111</v>
       </c>
@@ -2356,11 +2592,11 @@
       <c r="E24" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="F24" s="0" t="s">
+      <c r="F24" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" s="5" t="s">
         <v>182</v>
       </c>
@@ -2377,7 +2613,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" s="4"/>
       <c r="B26" s="4" t="s">
         <v>229</v>
@@ -2395,24 +2631,19 @@
         <v>233</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C27" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D27" s="0" t="s">
+      <c r="D27" t="s">
         <v>118</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E5" r:id="rId1" display="https://modelseed.org/biochem/reactions/rxn00216"/>
+    <hyperlink ref="E5" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>